--- a/public/uploads/files/salarys.xlsx
+++ b/public/uploads/files/salarys.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374F84D-4EB6-4C23-869A-48FF26BCB059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB6D4A-8EAC-476F-BCA2-84E18E996830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EF4D464-00A2-1D4B-A58E-CA3044DC7B1B}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Month</t>
   </si>
@@ -42,7 +39,7 @@
     <t>Bonus</t>
   </si>
   <si>
-    <t>Wai Wai Aung</t>
+    <t>Emp_id</t>
   </si>
 </sst>
 </file>
@@ -397,34 +394,34 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>888888</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2020</v>

--- a/public/uploads/files/salarys.xlsx
+++ b/public/uploads/files/salarys.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAB6D4A-8EAC-476F-BCA2-84E18E996830}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A02416-B1DA-4ADC-A351-B72168275B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EF4D464-00A2-1D4B-A58E-CA3044DC7B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Month</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Emp_id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Aung Soe Oo</t>
+  </si>
+  <si>
+    <t>R &amp; D</t>
   </si>
 </sst>
 </file>
@@ -391,45 +403,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FB16E0-85FE-6E48-AD13-00A0E21C3EAF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>888888</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>190401</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2020</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2000</v>
       </c>
     </row>

--- a/public/uploads/files/salarys.xlsx
+++ b/public/uploads/files/salarys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linnhr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A02416-B1DA-4ADC-A351-B72168275B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{272087C5-BBCE-4D00-86AE-59ECCF2469E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8EF4D464-00A2-1D4B-A58E-CA3044DC7B1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96D1D683-9FC0-4AF2-A07D-5431BE26E042}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
   <si>
     <t>Month</t>
   </si>
@@ -33,38 +39,38 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>Basic Pay</t>
+  </si>
+  <si>
+    <t>Performance Allowance</t>
   </si>
   <si>
     <t>Bonus</t>
   </si>
   <si>
-    <t>Emp_id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Aung Soe Oo</t>
-  </si>
-  <si>
-    <t>R &amp; D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,14 +90,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{704EE19F-84FF-4A89-8259-463B5F574E19}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,59 +425,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FB16E0-85FE-6E48-AD13-00A0E21C3EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E15344-3D26-42A2-9C74-FB7F8D3AD24A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>190401</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2">
-        <v>190401</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>2021</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>150000</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>150000</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
